--- a/inst/example/Datasets infomation.xlsx
+++ b/inst/example/Datasets infomation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/jcc1885_ads_northwestern_edu/Documents/NU Projects/Lab Activities/XZDB Update SQL/36 edit Dataset/Genomic result Browser/App_Info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcc1885\Documents\GitHub\XZDBfunction\inst\shinyapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{94DF2075-4E86-5C47-8672-39CDC28465F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41F70994-8EB2-4692-98EA-CF4209BCDA3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FAA08D-8751-4622-ABC1-4619F2B38EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29355" yWindow="2235" windowWidth="24870" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="540" windowWidth="16260" windowHeight="14430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
-    <t>VarN_GeneID</t>
-  </si>
-  <si>
-    <t>VarN_GeneName</t>
-  </si>
-  <si>
     <t>geneSymbol</t>
   </si>
   <si>
@@ -293,6 +287,12 @@
   </si>
   <si>
     <t>e.g. eIF4E</t>
+  </si>
+  <si>
+    <t>VarN_ID</t>
+  </si>
+  <si>
+    <t>VarN_Name</t>
   </si>
 </sst>
 </file>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N1:N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,99 +668,99 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <v>2018</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P2" s="4">
         <v>45895</v>
@@ -768,46 +768,46 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <v>2016</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" t="s">
         <v>70</v>
-      </c>
-      <c r="M3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>72</v>
       </c>
       <c r="P3" s="4">
         <v>45895</v>
@@ -815,34 +815,34 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4">
         <v>2023</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P4" s="4">
         <v>45922</v>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7BC59-D9FC-421A-8097-6C13356C4549}">
   <dimension ref="B3:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,230 +872,230 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/inst/example/Datasets infomation.xlsx
+++ b/inst/example/Datasets infomation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcc1885\Documents\GitHub\XZDBfunction\inst\shinyapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcc1885\Documents\GitHub\XZDBfunction\inst\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FAA08D-8751-4622-ABC1-4619F2B38EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049026B6-B694-4EFB-A405-BE9A09E82471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8865" yWindow="540" windowWidth="16260" windowHeight="14430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="915" windowWidth="26025" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
-  <si>
-    <t>geneSymbol</t>
-  </si>
-  <si>
-    <t>GeneID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Gene</t>
   </si>
@@ -112,9 +106,6 @@
     <t>Numeric one number (1,2,3,...)</t>
   </si>
   <si>
-    <t>U2OS</t>
-  </si>
-  <si>
     <t>Analysis_Type</t>
   </si>
   <si>
@@ -130,12 +121,6 @@
     <t>JCM</t>
   </si>
   <si>
-    <t>CME</t>
-  </si>
-  <si>
-    <t>DSG</t>
-  </si>
-  <si>
     <t>The type of analysis whose results this is</t>
   </si>
   <si>
@@ -217,12 +202,6 @@
     <t>KD = knockdown or OE = overexpression of the GOI if applicable. Other treatment details should be one or two words, using the same entries as previously if possible. Put specific details (like drug concentrations) in notes if needed</t>
   </si>
   <si>
-    <t>OE</t>
-  </si>
-  <si>
-    <t>PMID36843541</t>
-  </si>
-  <si>
     <t>eIF4E</t>
   </si>
   <si>
@@ -241,13 +220,7 @@
     <t>eIF4E RIP targets in LY1 nuclear lysates vs input determined via voom/lima. Mapped using hg19 genome assembly</t>
   </si>
   <si>
-    <t>MG_eIF4E_OE_DSG_2018.csv</t>
-  </si>
-  <si>
     <t>ensembl_gene_id</t>
-  </si>
-  <si>
-    <t>DSP701, Differentially spliced genes in eIF4E overexpression vs Vector in U2OS cells, DSG analysis via rMATS, also used in JCM paper</t>
   </si>
   <si>
     <t>Pick one of the acronyms in use if possible. DEG = Differentially expressed genes, DSG = Differentially Spliced Genes, RNA IP = RNA immunoprecipitation target, MS = Mass Spec</t>
@@ -645,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,99 +641,96 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2">
+        <v>2016</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
         <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2">
-        <v>2018</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
-        <v>73</v>
       </c>
       <c r="P2" s="4">
         <v>45895</v>
@@ -768,83 +738,36 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J3">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P3" s="4">
-        <v>45895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4">
-        <v>2023</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="4">
         <v>45922</v>
       </c>
     </row>
@@ -857,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7BC59-D9FC-421A-8097-6C13356C4549}">
   <dimension ref="B3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -872,230 +795,230 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
         <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
